--- a/FDI data modified.xlsx
+++ b/FDI data modified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neham\git practice\FD-investment-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B6B9B-7CCD-40A8-B23A-DC72988991FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A84461-77CD-47BB-91C0-9379AC5A48E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="2640" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FDI data raw" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>Sector</t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>avg_last_2yrs</t>
-  </si>
-  <si>
-    <t>total_FDI_yearly</t>
   </si>
 </sst>
 </file>
@@ -5628,10 +5625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6481,79 +6478,6 @@
         <v>1792.33</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16">
-        <f>SUM(B2:B15)</f>
-        <v>2378.71</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ref="C16:R16" si="0">SUM(C2:C15)</f>
-        <v>4027.69</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>2704.3199999999997</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>2187.8500000000004</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>3218.6899999999996</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>5539.7499999999991</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>12491.76</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>24575.399999999998</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>31395.96</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>25834.380000000005</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>21383.07</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
-        <v>35120.78</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>22423.590000000004</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>24299.32</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
-        <v>30930.469999999994</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>40000.990000000005</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
-        <v>43478.259999999995</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6561,10 +6485,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7009,35 +6933,6 @@
         <v>1719.09</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16">
-        <v>19528.88</v>
-      </c>
-      <c r="C16">
-        <v>21705.64</v>
-      </c>
-      <c r="D16">
-        <v>26456.14</v>
-      </c>
-      <c r="E16">
-        <v>29944.22</v>
-      </c>
-      <c r="F16">
-        <v>30433.86</v>
-      </c>
-      <c r="G16">
-        <v>32226.53</v>
-      </c>
-      <c r="H16">
-        <v>38136.57</v>
-      </c>
-      <c r="I16">
-        <v>41739.620000000003</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
